--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Vipr2</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H2">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.664255832048435</v>
+        <v>0.02608566666666666</v>
       </c>
       <c r="N2">
-        <v>0.664255832048435</v>
+        <v>0.07825699999999999</v>
       </c>
       <c r="O2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798636</v>
       </c>
       <c r="P2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798637</v>
       </c>
       <c r="Q2">
-        <v>1.529966817828917</v>
+        <v>0.06947429514699999</v>
       </c>
       <c r="R2">
-        <v>1.529966817828917</v>
+        <v>0.625268656323</v>
       </c>
       <c r="S2">
-        <v>0.1176376749956822</v>
+        <v>0.00267708165580143</v>
       </c>
       <c r="T2">
-        <v>0.1176376749956822</v>
+        <v>0.002677081655801431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H3">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.38089125820737</v>
+        <v>0.6658376666666667</v>
       </c>
       <c r="N3">
-        <v>1.38089125820737</v>
+        <v>1.997513</v>
       </c>
       <c r="O3">
-        <v>0.6752038837630253</v>
+        <v>0.1800924934601381</v>
       </c>
       <c r="P3">
-        <v>0.6752038837630253</v>
+        <v>0.1800924934601381</v>
       </c>
       <c r="Q3">
-        <v>3.180578479186386</v>
+        <v>1.773334113523</v>
       </c>
       <c r="R3">
-        <v>3.180578479186386</v>
+        <v>15.960007021707</v>
       </c>
       <c r="S3">
-        <v>0.2445516158080678</v>
+        <v>0.06833261445653274</v>
       </c>
       <c r="T3">
-        <v>0.2445516158080678</v>
+        <v>0.06833261445653276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15585312321077</v>
+        <v>2.663313</v>
       </c>
       <c r="H4">
-        <v>3.15585312321077</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I4">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J4">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.664255832048435</v>
+        <v>0.1152503333333333</v>
       </c>
       <c r="N4">
-        <v>0.664255832048435</v>
+        <v>0.345751</v>
       </c>
       <c r="O4">
-        <v>0.3247961162369746</v>
+        <v>0.03117234266126738</v>
       </c>
       <c r="P4">
-        <v>0.3247961162369746</v>
+        <v>0.03117234266126739</v>
       </c>
       <c r="Q4">
-        <v>2.096293842181022</v>
+        <v>0.306947711021</v>
       </c>
       <c r="R4">
-        <v>2.096293842181022</v>
+        <v>2.762529399189</v>
       </c>
       <c r="S4">
-        <v>0.1611820144255681</v>
+        <v>0.01182774268851349</v>
       </c>
       <c r="T4">
-        <v>0.1611820144255681</v>
+        <v>0.0118277426885135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.15585312321077</v>
+        <v>2.663313</v>
       </c>
       <c r="H5">
-        <v>3.15585312321077</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I5">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J5">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.38089125820737</v>
+        <v>2.890024666666667</v>
       </c>
       <c r="N5">
-        <v>1.38089125820737</v>
+        <v>8.670074</v>
       </c>
       <c r="O5">
-        <v>0.6752038837630253</v>
+        <v>0.7816796412057959</v>
       </c>
       <c r="P5">
-        <v>0.6752038837630253</v>
+        <v>0.7816796412057959</v>
       </c>
       <c r="Q5">
-        <v>4.357889990028179</v>
+        <v>7.697040265054</v>
       </c>
       <c r="R5">
-        <v>4.357889990028179</v>
+        <v>69.273362385486</v>
       </c>
       <c r="S5">
-        <v>0.3350739639186065</v>
+        <v>0.2965932256519025</v>
       </c>
       <c r="T5">
-        <v>0.3350739639186065</v>
+        <v>0.2965932256519025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.900192559806218</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H6">
-        <v>0.900192559806218</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I6">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J6">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.664255832048435</v>
+        <v>0.02608566666666666</v>
       </c>
       <c r="N6">
-        <v>0.664255832048435</v>
+        <v>0.07825699999999999</v>
       </c>
       <c r="O6">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798636</v>
       </c>
       <c r="P6">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798637</v>
       </c>
       <c r="Q6">
-        <v>0.59795815781789</v>
+        <v>0.08291671741755555</v>
       </c>
       <c r="R6">
-        <v>0.59795815781789</v>
+        <v>0.7462504567579999</v>
       </c>
       <c r="S6">
-        <v>0.0459764268157243</v>
+        <v>0.003195064054815303</v>
       </c>
       <c r="T6">
-        <v>0.0459764268157243</v>
+        <v>0.003195064054815303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.178631333333334</v>
+      </c>
+      <c r="H7">
+        <v>9.535894000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4528458348143826</v>
+      </c>
+      <c r="J7">
+        <v>0.4528458348143827</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6658376666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.997513</v>
+      </c>
+      <c r="O7">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="P7">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="Q7">
+        <v>2.116452470180223</v>
+      </c>
+      <c r="R7">
+        <v>19.048072231622</v>
+      </c>
+      <c r="S7">
+        <v>0.08155413554475996</v>
+      </c>
+      <c r="T7">
+        <v>0.08155413554475997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.178631333333334</v>
+      </c>
+      <c r="H8">
+        <v>9.535894000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.4528458348143826</v>
+      </c>
+      <c r="J8">
+        <v>0.4528458348143827</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1152503333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.345751</v>
+      </c>
+      <c r="O8">
+        <v>0.03117234266126738</v>
+      </c>
+      <c r="P8">
+        <v>0.03117234266126739</v>
+      </c>
+      <c r="Q8">
+        <v>0.3663383207104445</v>
+      </c>
+      <c r="R8">
+        <v>3.297044886394001</v>
+      </c>
+      <c r="S8">
+        <v>0.01411626553556162</v>
+      </c>
+      <c r="T8">
+        <v>0.01411626553556163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="H7">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="I7">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="J7">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.38089125820737</v>
-      </c>
-      <c r="N7">
-        <v>1.38089125820737</v>
-      </c>
-      <c r="O7">
-        <v>0.6752038837630253</v>
-      </c>
-      <c r="P7">
-        <v>0.6752038837630253</v>
-      </c>
-      <c r="Q7">
-        <v>1.243068036539722</v>
-      </c>
-      <c r="R7">
-        <v>1.243068036539722</v>
-      </c>
-      <c r="S7">
-        <v>0.09557830403635098</v>
-      </c>
-      <c r="T7">
-        <v>0.09557830403635098</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.178631333333334</v>
+      </c>
+      <c r="H9">
+        <v>9.535894000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.4528458348143826</v>
+      </c>
+      <c r="J9">
+        <v>0.4528458348143827</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.890024666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.670074</v>
+      </c>
+      <c r="O9">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="P9">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="Q9">
+        <v>9.186322959572889</v>
+      </c>
+      <c r="R9">
+        <v>82.676906636156</v>
+      </c>
+      <c r="S9">
+        <v>0.3539803696792457</v>
+      </c>
+      <c r="T9">
+        <v>0.3539803696792458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.531872</v>
+      </c>
+      <c r="I10">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J10">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02608566666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07825699999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.007055522672798636</v>
+      </c>
+      <c r="P10">
+        <v>0.007055522672798637</v>
+      </c>
+      <c r="Q10">
+        <v>0.03071041190044444</v>
+      </c>
+      <c r="R10">
+        <v>0.276393707104</v>
+      </c>
+      <c r="S10">
+        <v>0.001183376962181903</v>
+      </c>
+      <c r="T10">
+        <v>0.001183376962181903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.531872</v>
+      </c>
+      <c r="I11">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J11">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6658376666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.997513</v>
+      </c>
+      <c r="O11">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="P11">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="Q11">
+        <v>0.7838844704817778</v>
+      </c>
+      <c r="R11">
+        <v>7.054960234336001</v>
+      </c>
+      <c r="S11">
+        <v>0.03020574345884533</v>
+      </c>
+      <c r="T11">
+        <v>0.03020574345884533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.531872</v>
+      </c>
+      <c r="I12">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J12">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1152503333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.345751</v>
+      </c>
+      <c r="O12">
+        <v>0.03117234266126738</v>
+      </c>
+      <c r="P12">
+        <v>0.03117234266126739</v>
+      </c>
+      <c r="Q12">
+        <v>0.1356831417635556</v>
+      </c>
+      <c r="R12">
+        <v>1.221148275872</v>
+      </c>
+      <c r="S12">
+        <v>0.005228334437192265</v>
+      </c>
+      <c r="T12">
+        <v>0.005228334437192265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.531872</v>
+      </c>
+      <c r="I13">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J13">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.890024666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.670074</v>
+      </c>
+      <c r="O13">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="P13">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="Q13">
+        <v>3.402399066503111</v>
+      </c>
+      <c r="R13">
+        <v>30.621591598528</v>
+      </c>
+      <c r="S13">
+        <v>0.1311060458746476</v>
+      </c>
+      <c r="T13">
+        <v>0.1311060458746476</v>
       </c>
     </row>
   </sheetData>
